--- a/biology/Zoologie/Colobinae/Colobinae.xlsx
+++ b/biology/Zoologie/Colobinae/Colobinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colobinés (Colobinae), du grec kolobos (κολοβος) qui signifie « mutilé » constituent une sous-famille des mammifères primates appelés en français colobes, nasiques, entelles, semnopithèques, langurs, etc. La classification scientifique de ces singes est encore en évolution. 
 </t>
@@ -513,13 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des genres et sous-genres
-Selon la troisième édition de Mammal Species of the World de 2005 :
-Taxons africains (tribu des Colobini)[note 1],[1]
+          <t>Liste des genres et sous-genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la troisième édition de Mammal Species of the World de 2005 :
+Taxons africains (tribu des Colobini)[note 1],
 genre Colobus Illiger, 1811 - des colobes ou guérézas
 genre Procolobus Rochebrune, 1877 - des colobes
 genre Piliocolobus Rochebrune, 1877 - des colobes
-Taxons asiatiques (tribu des Presbytini)[note 1],[1]
+Taxons asiatiques (tribu des Presbytini)[note 1],
 genre Nasalis É. Geoffroy, 1812  - un ou deux nasiques
 genre Simias Miller, 1903 - un nasique
 genre Presbytis Eschscholtz, 1821  - des semnopithèques
